--- a/Group_Project/개발 스케줄/개발스케줄.xlsx
+++ b/Group_Project/개발 스케줄/개발스케줄.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF40E1D6-62A9-410C-B531-823FA4C51001}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB24989-03C3-4AFC-B4E6-691EA177CF25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{B59C10AA-9B74-4154-9158-FB1A30D1484D}"/>
   </bookViews>
@@ -320,6 +320,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>608135</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>183174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>205154</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>8793</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC2D7F2A-004D-48E3-9828-655C3D146D58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2674327" y="4007828"/>
+          <a:ext cx="13041923" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -621,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4FBB95-4AAD-4247-AF00-73F24AD5A693}">
   <dimension ref="D4:AK16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1212,5 +1278,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>